--- a/egs/cvr/result/train_val_log_wdl.xlsx
+++ b/egs/cvr/result/train_val_log_wdl.xlsx
@@ -466,19 +466,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4121597004219677</v>
+        <v>0.4112914204165251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4122036419477424</v>
+        <v>0.4113366299779559</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6659592294051128</v>
+        <v>0.6666013635133526</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4070975248278644</v>
+        <v>0.4064348269356003</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6766081451579122</v>
+        <v>0.6770468468369499</v>
       </c>
     </row>
     <row r="3">
@@ -486,19 +486,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4068834373192828</v>
+        <v>0.4063098188790863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4068891251112746</v>
+        <v>0.4063148468423505</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6785271460069314</v>
+        <v>0.6788689120822948</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4064700297991028</v>
+        <v>0.4060729235270234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6781670308346137</v>
+        <v>0.6782202707536708</v>
       </c>
     </row>
     <row r="4">
@@ -506,19 +506,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4055464153323026</v>
+        <v>0.4051434359510285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4055418570182437</v>
+        <v>0.4051396772307206</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6818275631785694</v>
+        <v>0.6819764583612393</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4055430483571593</v>
+        <v>0.4055523462022272</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6802119045484761</v>
+        <v>0.6791395625235905</v>
       </c>
     </row>
     <row r="5">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4042918636334416</v>
+        <v>0.4042020322818813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4042294836850394</v>
+        <v>0.4041391589357883</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6854437558119546</v>
+        <v>0.6846948137566923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4049090677040406</v>
+        <v>0.4054612474655894</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6821443465643692</v>
+        <v>0.6794532166711021</v>
       </c>
     </row>
     <row r="6">
@@ -546,19 +546,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4032881617708867</v>
+        <v>0.4034324369589061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4032862819760314</v>
+        <v>0.4034320486842296</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6882466980555879</v>
+        <v>0.6869056139035932</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4044966053308418</v>
+        <v>0.4054892045344873</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6836540387616924</v>
+        <v>0.6797822443125064</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4026006489183548</v>
+        <v>0.4028222130595243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4025887073683257</v>
+        <v>0.4028093735693786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6899260320913299</v>
+        <v>0.6883789752229696</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4043160092058877</v>
+        <v>0.4054375663615172</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6839642569439507</v>
+        <v>0.679857642263072</v>
       </c>
     </row>
     <row r="8">
@@ -586,19 +586,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4020711596979733</v>
+        <v>0.4022907291388463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4021214910328494</v>
+        <v>0.4023429585221254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.691407824007388</v>
+        <v>0.6898258265858467</v>
       </c>
       <c r="E8" t="n">
-        <v>0.404090082546942</v>
+        <v>0.4054797874038064</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6846201450531804</v>
+        <v>0.6797524765078384</v>
       </c>
     </row>
     <row r="9">
@@ -606,19 +606,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4016519015447318</v>
+        <v>0.4018692748178481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4016623593241785</v>
+        <v>0.4018750876376881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6925081025919785</v>
+        <v>0.6910321722448813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4041640884234199</v>
+        <v>0.4055524172509451</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6843784154672614</v>
+        <v>0.6795910546093311</v>
       </c>
     </row>
     <row r="10">
@@ -626,19 +626,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4012923639510071</v>
+        <v>0.4014859019853966</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4013070999645894</v>
+        <v>0.4014961527908847</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6934001204313262</v>
+        <v>0.6919462939609016</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4039814311010836</v>
+        <v>0.4055384913692924</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6849247094895312</v>
+        <v>0.6798208381612199</v>
       </c>
     </row>
     <row r="11">
@@ -646,19 +646,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.400980338304849</v>
+        <v>0.4011593541565961</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4009768307144859</v>
+        <v>0.4011575990801436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6942583594379816</v>
+        <v>0.6927620804119792</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4040248072954882</v>
+        <v>0.4056300461573139</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6850050511985062</v>
+        <v>0.6797650917034908</v>
       </c>
     </row>
     <row r="12">
@@ -666,19 +666,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4007176433314811</v>
+        <v>0.4008728217315207</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4006940387014636</v>
+        <v>0.4008505065984426</v>
       </c>
       <c r="D12" t="n">
-        <v>0.694808526962559</v>
+        <v>0.6934117521355833</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4051429684767781</v>
+        <v>0.4064412895368354</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6844895320191765</v>
+        <v>0.6794351786509029</v>
       </c>
     </row>
     <row r="13">
@@ -686,19 +686,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4004636327265099</v>
+        <v>0.4005854404128114</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4004243864689042</v>
+        <v>0.4005502165461182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6954486801679839</v>
+        <v>0.6940807927389387</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4041906259093103</v>
+        <v>0.405893510820824</v>
       </c>
       <c r="F13" t="n">
-        <v>0.685064351846421</v>
+        <v>0.6796273167051536</v>
       </c>
     </row>
     <row r="14">
@@ -706,19 +706,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4002434824213232</v>
+        <v>0.4003403294676413</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4001996574720656</v>
+        <v>0.4002979245662464</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6961023499256586</v>
+        <v>0.694828727375839</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4040219811862324</v>
+        <v>0.4058367064111028</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6852027560310433</v>
+        <v>0.679829585105131</v>
       </c>
     </row>
     <row r="15">
@@ -726,19 +726,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4000674359585239</v>
+        <v>0.4001130852948734</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4000227771875824</v>
+        <v>0.4000691247407109</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6965341641681153</v>
+        <v>0.6953485465635424</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4041043161600391</v>
+        <v>0.4059351608809669</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6850105282449195</v>
+        <v>0.6795403095340341</v>
       </c>
     </row>
     <row r="16">
@@ -746,19 +746,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3998476358790819</v>
+        <v>0.3998462351772831</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3998628027408006</v>
+        <v>0.3998625189896037</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6969359617267206</v>
+        <v>0.6959523722964849</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4041869547448807</v>
+        <v>0.4060160436585699</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6852234609165316</v>
+        <v>0.6798180458414164</v>
       </c>
     </row>
     <row r="17">
@@ -766,19 +766,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3996760244594487</v>
+        <v>0.3996224268438026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3996981930155866</v>
+        <v>0.3996402542791754</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6973142850166215</v>
+        <v>0.6963753091769512</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4041979317512112</v>
+        <v>0.4060945104714785</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6851461724302235</v>
+        <v>0.6797523219223605</v>
       </c>
     </row>
     <row r="18">
@@ -786,19 +786,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.399521598156694</v>
+        <v>0.3993873233708048</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3995417822277127</v>
+        <v>0.3994076784859306</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6978080370697146</v>
+        <v>0.6970264363015034</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4044727708218672</v>
+        <v>0.4063697897290436</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6851246425218264</v>
+        <v>0.6795751357072528</v>
       </c>
     </row>
     <row r="19">
@@ -806,19 +806,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3993527427314449</v>
+        <v>0.3991473614280943</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3993475726922757</v>
+        <v>0.3991431470424366</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6981829339897131</v>
+        <v>0.6975568863395237</v>
       </c>
       <c r="E19" t="n">
-        <v>0.404187558683096</v>
+        <v>0.4060969342757619</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6852824683410982</v>
+        <v>0.6798554838075186</v>
       </c>
     </row>
     <row r="20">
@@ -826,19 +826,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3991688975523537</v>
+        <v>0.3988793271359298</v>
       </c>
       <c r="C20" t="n">
-        <v>0.399139775463433</v>
+        <v>0.3988533410366532</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6987394547313884</v>
+        <v>0.6983292506104981</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4043762624449016</v>
+        <v>0.4062197936268643</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6852361807284909</v>
+        <v>0.6798495461941928</v>
       </c>
     </row>
     <row r="21">
@@ -846,19 +846,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3990243618074164</v>
+        <v>0.3986540066468972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3990037526007509</v>
+        <v>0.3986314136712882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6989862898649326</v>
+        <v>0.6986650113048748</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4043429987926233</v>
+        <v>0.4061600607261355</v>
       </c>
       <c r="F21" t="n">
-        <v>0.685151351150054</v>
+        <v>0.6799456970857047</v>
       </c>
     </row>
   </sheetData>
